--- a/datastatic/datasets/online/SDG4_Equitable_Education_Bertelsmann_Social_Justice_Index_OECD_2016.xlsx
+++ b/datastatic/datasets/online/SDG4_Equitable_Education_Bertelsmann_Social_Justice_Index_OECD_2016.xlsx
@@ -391,7 +391,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG4_Equitable_Education_Bertelsmann_Social_Justice_Index_OECD_2016.xlsx
+++ b/datastatic/datasets/online/SDG4_Equitable_Education_Bertelsmann_Social_Justice_Index_OECD_2016.xlsx
@@ -391,7 +391,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG4_Equitable_Education_Bertelsmann_Social_Justice_Index_OECD_2016.xlsx
+++ b/datastatic/datasets/online/SDG4_Equitable_Education_Bertelsmann_Social_Justice_Index_OECD_2016.xlsx
@@ -115,7 +115,7 @@
     <t>target$target</t>
   </si>
   <si>
-    <t>4.5</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>target$ministerial_responsibility</t>
@@ -163,7 +163,7 @@
     <t>source$link</t>
   </si>
   <si>
-    <t>http://www.social-inclusion-monitor.eu/uploads/tx_itao_download/Social_Justice_Index_2016.pdf</t>
+    <t>https://www.social-inclusion-monitor.eu/uploads/tx_itao_download/Studie_NW_Social-Justice-Index_2016_02.pdf</t>
   </si>
   <si>
     <t>source$value</t>
@@ -184,55 +184,79 @@
     <t>countries</t>
   </si>
   <si>
+    <t>Estonia</t>
+  </si>
+  <si>
     <t>Finland</t>
   </si>
   <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
     <t>Lithuania</t>
   </si>
   <si>
-    <t>Estonia</t>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Ireland</t>
   </si>
   <si>
     <t>Denmark</t>
   </si>
   <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Germany</t>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Austria</t>
   </si>
   <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>UK</t>
+    <t>Hungary</t>
   </si>
   <si>
     <t>France</t>
@@ -241,38 +265,14 @@
     <t>Bulgaria</t>
   </si>
   <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
     <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Malta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -293,6 +293,9 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <name val="Arial"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -337,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -371,13 +374,19 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -663,406 +672,405 @@
     </row>
     <row r="36">
       <c r="A36" s="11"/>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>2016.0</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>2015.0</v>
       </c>
       <c r="D36" s="12">
-        <v>2014.0</v>
+        <v>2011.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="13">
-        <v>7.76</v>
-      </c>
-      <c r="C37" s="13">
-        <v>7.86</v>
-      </c>
-      <c r="D37" s="13">
-        <v>7.21</v>
-      </c>
+      <c r="B37" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="D37" s="12">
+        <v>2.2</v>
+      </c>
+      <c r="F37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="13">
-        <v>7.72</v>
-      </c>
-      <c r="C38" s="13">
-        <v>7.72</v>
-      </c>
-      <c r="D38" s="13">
-        <v>7.49</v>
-      </c>
+      <c r="B38" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="C38" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D38" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="F38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="13">
-        <v>7.49</v>
-      </c>
-      <c r="C39" s="13">
-        <v>7.46</v>
-      </c>
-      <c r="D39" s="13">
-        <v>7.58</v>
-      </c>
+      <c r="B39" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="C39" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="13">
-        <v>7.25</v>
-      </c>
-      <c r="C40" s="13">
-        <v>7.38</v>
-      </c>
-      <c r="D40" s="13">
-        <v>7.47</v>
+      <c r="B40" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="C40" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="D40" s="12">
+        <v>3.8</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="13">
-        <v>7.25</v>
-      </c>
-      <c r="C41" s="13">
-        <v>7.23</v>
-      </c>
-      <c r="D41" s="13">
-        <v>7.18</v>
+      <c r="B41" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="C41" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="D41" s="12">
+        <v>5.8</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="13">
-        <v>7.21</v>
-      </c>
-      <c r="C42" s="13">
-        <v>7.15</v>
-      </c>
-      <c r="D42" s="13">
-        <v>6.89</v>
+      <c r="B42" s="14">
+        <v>3.6</v>
+      </c>
+      <c r="C42" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="D42" s="12">
+        <v>4.5</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="13">
-        <v>7.21</v>
-      </c>
-      <c r="C43" s="13">
+      <c r="B43" s="14">
+        <v>3.8</v>
+      </c>
+      <c r="C43" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="D43" s="12">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="C44" s="11">
+        <v>3.9</v>
+      </c>
+      <c r="D44" s="12">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="14">
+        <v>4.1</v>
+      </c>
+      <c r="C45" s="11">
+        <v>4.1</v>
+      </c>
+      <c r="D45" s="12">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="C46" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="D46" s="12">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="C47" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="D47" s="12">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="C48" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="D48" s="12">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="C49" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="D49" s="12">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="14">
+        <v>5.2</v>
+      </c>
+      <c r="C50" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="D50" s="12">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="14">
+        <v>5.6</v>
+      </c>
+      <c r="C51" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="D51" s="12">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="14">
+        <v>5.6</v>
+      </c>
+      <c r="C52" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="D52" s="12"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="14">
+        <v>5.6</v>
+      </c>
+      <c r="C53" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="D53" s="12">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="14">
+        <v>5.8</v>
+      </c>
+      <c r="C54" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="D54" s="12">
         <v>7.2</v>
       </c>
-      <c r="D43" s="13">
-        <v>7.05</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="13">
-        <v>7.03</v>
-      </c>
-      <c r="C44" s="13">
-        <v>7.17</v>
-      </c>
-      <c r="D44" s="13">
-        <v>7.15</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="13">
-        <v>6.77</v>
-      </c>
-      <c r="C45" s="13">
-        <v>6.65</v>
-      </c>
-      <c r="D45" s="13">
-        <v>6.59</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" s="13">
-        <v>6.76</v>
-      </c>
-      <c r="C46" s="13">
-        <v>6.43</v>
-      </c>
-      <c r="D46" s="13">
-        <v>6.47</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="13">
-        <v>6.74</v>
-      </c>
-      <c r="C47" s="13">
-        <v>6.73</v>
-      </c>
-      <c r="D47" s="13">
-        <v>6.93</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="13">
-        <v>6.5</v>
-      </c>
-      <c r="C48" s="13">
-        <v>6.57</v>
-      </c>
-      <c r="D48" s="13">
-        <v>6.87</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="13">
-        <v>6.36</v>
-      </c>
-      <c r="C49" s="13">
-        <v>6.16</v>
-      </c>
-      <c r="D49" s="13">
-        <v>6.26</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="13">
-        <v>6.32</v>
-      </c>
-      <c r="C50" s="13">
-        <v>6.27</v>
-      </c>
-      <c r="D50" s="13">
-        <v>6.31</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="13">
-        <v>6.24</v>
-      </c>
-      <c r="C51" s="13">
-        <v>6.18</v>
-      </c>
-      <c r="D51" s="13">
-        <v>6.14</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="13">
-        <v>6.14</v>
-      </c>
-      <c r="C52" s="13">
+    </row>
+    <row r="55">
+      <c r="A55" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="14">
+        <v>5.9</v>
+      </c>
+      <c r="C55" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="D55" s="12">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="C56" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="D56" s="12">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="14">
         <v>6.3</v>
       </c>
-      <c r="D52" s="13">
-        <v>6.43</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" s="13">
-        <v>6.09</v>
-      </c>
-      <c r="C53" s="13">
-        <v>6.02</v>
-      </c>
-      <c r="D53" s="13">
-        <v>6.01</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54" s="13">
-        <v>5.86</v>
-      </c>
-      <c r="C54" s="13">
-        <v>5.83</v>
-      </c>
-      <c r="D54" s="13">
-        <v>5.67</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="13">
-        <v>5.86</v>
-      </c>
-      <c r="C55" s="13">
-        <v>5.56</v>
-      </c>
-      <c r="D55" s="13">
-        <v>5.58</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56" s="13">
-        <v>5.68</v>
-      </c>
-      <c r="C56" s="13">
-        <v>5.64</v>
-      </c>
-      <c r="D56" s="13">
-        <v>5.47</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B57" s="13">
-        <v>5.55</v>
-      </c>
-      <c r="C57" s="13">
-        <v>5.39</v>
-      </c>
-      <c r="D57" s="13">
-        <v>6.04</v>
+      <c r="C57" s="11">
+        <v>6.3</v>
+      </c>
+      <c r="D57" s="12">
+        <v>9.1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="13">
-        <v>5.49</v>
-      </c>
-      <c r="C58" s="13">
-        <v>5.18</v>
-      </c>
-      <c r="D58" s="13">
-        <v>5.01</v>
+      <c r="B58" s="14">
+        <v>6.3</v>
+      </c>
+      <c r="C58" s="11">
+        <v>6.3</v>
+      </c>
+      <c r="D58" s="12">
+        <v>4.9</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="13">
-        <v>5.38</v>
-      </c>
-      <c r="C59" s="13">
-        <v>5.21</v>
-      </c>
-      <c r="D59" s="13">
-        <v>5.48</v>
+      <c r="B59" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="C59" s="11">
+        <v>6.4</v>
+      </c>
+      <c r="D59" s="12">
+        <v>8.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="13">
-        <v>5.18</v>
-      </c>
-      <c r="C60" s="13">
-        <v>5.06</v>
-      </c>
-      <c r="D60" s="13">
-        <v>4.76</v>
+      <c r="B60" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="C60" s="11">
+        <v>6.8</v>
+      </c>
+      <c r="D60" s="12">
+        <v>5.7</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="13">
-        <v>4.98</v>
-      </c>
-      <c r="C61" s="13">
-        <v>4.85</v>
-      </c>
-      <c r="D61" s="13">
-        <v>5.02</v>
+      <c r="B61" s="14">
+        <v>8.5</v>
+      </c>
+      <c r="C61" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="D61" s="12">
+        <v>12.5</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="13">
-        <v>4.67</v>
-      </c>
-      <c r="C62" s="13">
-        <v>4.65</v>
-      </c>
-      <c r="D62" s="13">
-        <v>5.42</v>
+      <c r="B62" s="14">
+        <v>10.9</v>
+      </c>
+      <c r="C62" s="11">
+        <v>10.9</v>
+      </c>
+      <c r="D62" s="12">
+        <v>8.5</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="C63" s="13">
-        <v>4.23</v>
-      </c>
-      <c r="D63" s="13">
-        <v>4.17</v>
+      <c r="B63" s="14">
+        <v>11.5</v>
+      </c>
+      <c r="C63" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="D63" s="12">
+        <v>10.3</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="13">
-        <v>4.34</v>
-      </c>
-      <c r="C64" s="13">
-        <v>4.31</v>
-      </c>
-      <c r="D64" s="13">
-        <v>4.15</v>
+      <c r="B64" s="14">
+        <v>13.4</v>
+      </c>
+      <c r="C64" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="D64" s="12">
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>
